--- a/tests/03_Data_Loginmember.xlsx
+++ b/tests/03_Data_Loginmember.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FD25BC-B143-47A2-AB91-702CF1755065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="ตารางที่ TC03-EC" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="ตารางที่ TC03-TC" state="visible" r:id="rId5"/>
+    <sheet name="ตารางที่ TC03-EC" sheetId="1" r:id="rId1"/>
+    <sheet name="ตารางที่ TC03-TC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="46">
   <si>
     <t>TCID</t>
   </si>
@@ -35,26 +49,29 @@
     <t>Result</t>
   </si>
   <si>
+    <t>Revise</t>
+  </si>
+  <si>
     <t>Login สำเร็จ</t>
   </si>
   <si>
     <t>1,4</t>
   </si>
   <si>
-    <t>Teue</t>
+    <t>Pass</t>
   </si>
   <si>
     <t>Zaaaaaaa</t>
   </si>
   <si>
-    <t xml:space="preserve">กรุณากรอกชื่อผู้ใช้ให้
+    <t>กรุณากรอกชื่อผู้ใช้ให้
 ถูกต้องโดยกรอกให้เหมือนกับที่ได้ลงทะเบียนใน Register</t>
   </si>
   <si>
     <t>2,4</t>
   </si>
   <si>
-    <t>False</t>
+    <t>Fail</t>
   </si>
   <si>
     <t>กรุณากรอกชื่อผู้ใช้</t>
@@ -70,6 +87,24 @@
   </si>
   <si>
     <t>1,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result P/F </t>
+  </si>
+  <si>
+    <t>คิดเป็น %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass : </t>
+  </si>
+  <si>
+    <t>Fail :</t>
+  </si>
+  <si>
+    <t>Sum :</t>
+  </si>
+  <si>
+    <t>Revise Manual</t>
   </si>
   <si>
     <t>Check Item</t>
@@ -138,48 +173,48 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Tahoma"/>
-    </font>
-    <font>
-      <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <color theme="9"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <color rgb="FFFF0000"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="7">
@@ -203,13 +238,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.5999938962981048"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -372,6 +407,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -392,47 +433,71 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -707,14 +772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.69921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.09765625" style="1" customWidth="1"/>
@@ -724,7 +789,7 @@
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -743,8 +808,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -755,16 +823,19 @@
         <v>1234</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="69" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -772,37 +843,43 @@
         <v>12345</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -813,16 +890,19 @@
         <v>1234</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" ht="69" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -833,16 +913,19 @@
         <v>12345678</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -851,600 +934,709 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="9">
+        <f>COUNTIF(F2:F7, "Pass")</f>
+        <v>2</v>
+      </c>
+      <c r="L8" s="9">
+        <f>K8*100/K10</f>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9">
+        <f>COUNTIF(F2:F7, "Fail")</f>
+        <v>4</v>
+      </c>
+      <c r="L9" s="9">
+        <f>K9*100/K10</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="9">
+        <f>SUM(K8:K9)</f>
+        <v>6</v>
+      </c>
+      <c r="L10" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="12">
+        <f>COUNTIF(G2:G7, "Pass")</f>
+        <v>6</v>
+      </c>
+      <c r="L13" s="9">
+        <f>K13*100/K15</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="12">
+        <f>COUNTIF(G2:G6, "Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <f>K14*100/K15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="12">
+        <f>SUM(K13:K14)</f>
+        <v>6</v>
+      </c>
+      <c r="L15" s="9">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J12:K12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F1:F7">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="20.09765625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="20.09765625" style="13" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="13" customWidth="1"/>
     <col min="6" max="6" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="17" t="s">
-        <v>6</v>
+      <c r="B2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="32" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="C3" s="19" t="s">
-        <v>25</v>
+      <c r="A3" s="21"/>
+      <c r="C3" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="20"/>
+        <v>33</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="C4" s="19" t="s">
-        <v>27</v>
+      <c r="A4" s="21"/>
+      <c r="C4" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="20"/>
+        <v>35</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="C5" s="19" t="s">
-        <v>29</v>
+      <c r="A5" s="21"/>
+      <c r="C5" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1234</v>
+      </c>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="C6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1234</v>
+      </c>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="C7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="21">
-        <v>1234</v>
-      </c>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="C6" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="C10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="18">
-        <v>1234</v>
-      </c>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="C7" s="19" t="s">
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="C11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24" t="s">
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="C12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>2</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="D12" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="C10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="C11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="C12" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
       </c>
       <c r="E12" s="28">
         <v>12345</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="C13" s="19" t="s">
+      <c r="A13" s="21"/>
+      <c r="C13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="C14" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>3</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="C17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="C14" s="19" t="s">
+      <c r="D17" t="s">
         <v>33</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="33"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="C18" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24" t="s">
+      <c r="D18" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="C19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>3</v>
-      </c>
-      <c r="B16" s="14" t="s">
+      <c r="D19" t="s">
         <v>37</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="C17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="C18" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="C19" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
       </c>
       <c r="E19" s="29">
         <v>12345</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="C20" s="19" t="s">
+      <c r="A20" s="21"/>
+      <c r="C20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="C21" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="33"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="34"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>4</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="C24" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="C21" s="19" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E24" s="21"/>
+      <c r="F24" s="33"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="C25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24" t="s">
+      <c r="D25" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="E25" s="21"/>
+      <c r="F25" s="33"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="C26" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="26"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>4</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="C24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="C25" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="C26" s="19" t="s">
-        <v>29</v>
-      </c>
       <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="23">
+        <v>1234</v>
+      </c>
+      <c r="F26" s="33"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="C27" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="21">
+        <v>1234</v>
+      </c>
+      <c r="F27" s="33"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="C28" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="33"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="34"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>5</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="21">
-        <v>1234</v>
-      </c>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="C27" s="19" t="s">
+      <c r="D30" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E30" s="17"/>
+      <c r="F30" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="C31" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="18">
-        <v>1234</v>
-      </c>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="C28" s="19" t="s">
+      <c r="D31" t="s">
         <v>33</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E31" s="21"/>
+      <c r="F31" s="33"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="C32" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24" t="s">
+      <c r="D32" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="E32" s="21"/>
+      <c r="F32" s="33"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="C33" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="26"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>5</v>
-      </c>
-      <c r="B30" s="14" t="s">
+      <c r="D33" t="s">
         <v>37</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="C31" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="C32" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="C33" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" t="s">
-        <v>30</v>
       </c>
       <c r="E33" s="30">
         <v>1234</v>
       </c>
-      <c r="F33" s="20"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="C34" s="19" t="s">
-        <v>31</v>
+      <c r="A34" s="21"/>
+      <c r="C34" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E34" s="28">
         <v>12345678</v>
       </c>
-      <c r="F34" s="20"/>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="C35" s="19" t="s">
+      <c r="A35" s="21"/>
+      <c r="C35" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="33"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="34"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>6</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="C38" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
         <v>33</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E38" s="21"/>
+      <c r="F38" s="33"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="C39" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24" t="s">
+      <c r="D39" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="E39" s="21"/>
+      <c r="F39" s="33"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="C40" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="26"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
-        <v>6</v>
-      </c>
-      <c r="B37" s="14" t="s">
+      <c r="D40" t="s">
         <v>37</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="C38" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="C39" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="C40" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" t="s">
-        <v>30</v>
       </c>
       <c r="E40" s="30">
         <v>1234</v>
       </c>
-      <c r="F40" s="20"/>
+      <c r="F40" s="33"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="C41" s="19" t="s">
-        <v>31</v>
+      <c r="A41" s="21"/>
+      <c r="C41" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E41" s="29">
         <v>12345678</v>
       </c>
-      <c r="F41" s="20"/>
+      <c r="F41" s="33"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="C42" s="19" t="s">
-        <v>33</v>
+      <c r="A42" s="21"/>
+      <c r="C42" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="20"/>
+        <v>41</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="33"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="26"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="F43" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F37:F43"/>
     <mergeCell ref="F2:F8"/>
     <mergeCell ref="F9:F15"/>
     <mergeCell ref="F16:F22"/>
     <mergeCell ref="F23:F29"/>
     <mergeCell ref="F30:F36"/>
-    <mergeCell ref="F37:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
